--- a/biology/Botanique/Peter_Lawson_(compositeur)/Peter_Lawson_(compositeur).xlsx
+++ b/biology/Botanique/Peter_Lawson_(compositeur)/Peter_Lawson_(compositeur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Lawson, né le 9 mars 1951 à Cheltenham (Gloucestershire)[1], est un compositeur, pianiste, arrangeur et pédagogue anglais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Lawson, né le 9 mars 1951 à Cheltenham (Gloucestershire), est un compositeur, pianiste, arrangeur et pédagogue anglais.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Lawson étudie la composition et le piano à la Guildhall School of Music and Drama de Londres (ayant antérieurement compté Gustav Holst parmi ses élèves), où il devient ensuite enseignant.
 Botaniste amateur, il s'intéresse plus spécialement aux cinquante espèces d'orchidées sauvages observables à ce jour en Grande-Bretagne et en Irlande (auxquelles s'ajoute une espèce disparue) et a entrepris depuis 1981 de les décrire musicalement au travers de compositions souvent intitulées Song of the... (« Chant de... »), suivi du nom anglais de l'espèce, pour diverses formations vocales ou instrumentales.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cycle des orchidées (intégrale)
-La numérotation ci-dessous adoptée est celle mentionnée au dos des partitions, dans l'ordre de leur publication (l'année indiquée est celle de composition, parfois de révision, ne suivant pas cet ordre) chez l'éditeur Goodmusic Publishing (voir lien externe en fin de page)[2].
+          <t>Cycle des orchidées (intégrale)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La numérotation ci-dessous adoptée est celle mentionnée au dos des partitions, dans l'ordre de leur publication (l'année indiquée est celle de composition, parfois de révision, ne suivant pas cet ordre) chez l'éditeur Goodmusic Publishing (voir lien externe en fin de page).
 1981 : Song of the Red Helleborine pour alto et piano
 1982 (avril) : Song of the Military Orchid pour cinq flûtes
 1983 (février-décembre) : Song of the Slender-Lipped Helleborine pour violon et guitare
@@ -599,9 +618,43 @@
 2018 (juin-juillet) : Sonate pour piano A Portrait of the Monkey Orchid (orchestrée comme poème symphonique titré The Monkey Orchid), avec narrateur optionnel)
 2022 (mai-juin) : Song of the Summer Lady's Tresses Orchid, nonette pour quintette à vent, violon, alto, violoncelle et contrebasse (une « orchidée mystérieuse » – dixit le compositeur – considérée comme éteinte en Grande-Bretagne)
 2022 (juillet) : Song of the Greater Tongue Orchid pour quintette avec piano
-2023 (janvier) : The Giant Orchid pour orchestre à cordes
-Autres compositions (sélection)
-1981 : A Bed of Hay – Seven Carols for Christmas, pour chœurs et orchestre (ou piano) (révision 2019)
+2023 (janvier) : The Giant Orchid pour orchestre à cordes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peter_Lawson_(compositeur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_Lawson_(compositeur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Compositions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres compositions (sélection)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1981 : A Bed of Hay – Seven Carols for Christmas, pour chœurs et orchestre (ou piano) (révision 2019)
 1990 : Nessie, opéra pour enfants (livret du compositeur) en deux actes, pour solistes, chœurs et orchestre (ou piano)
 2012 : Jubilee Clips, a Celebration of British Music, pour orchestre (pour le jubilé de diamant d'Élisabeth II)
 2016 : Variations on Happy Birthday to You, pour orchestre
